--- a/biology/Botanique/Aristoloche_élevée/Aristoloche_élevée.xlsx
+++ b/biology/Botanique/Aristoloche_élevée/Aristoloche_élevée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aristoloche_%C3%A9lev%C3%A9e</t>
+          <t>Aristoloche_élevée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aristolochia sempervirens
 L'aristoloche élevée ou aristoloche toujours verte (Aristolochia sempervirens) est une espèce de plante de la famille des Aristolochiaceae. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aristoloche_%C3%A9lev%C3%A9e</t>
+          <t>Aristoloche_élevée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante grimpante à feuilles persistantes et ligneuses qui peut atteindre 5 mètres de haut. Ses feuilles sont ovales-lancéolées, coriaces et glabres. Elles ont une forme de cœur à leur base. 
-Les fleurs poussent sur une tige florale soyeuse et mesurent de 2 à 5 cm de long. Elles ont un tube floral fortement incurvé avec une marge colorée en jaune et violet à l'intérieur et une couleur violette ou violet-brun sur le bord. Les fruits sont des capsules cylindriques de 1 à 4 cm de long. La floraison a lieu de janvier à juin[1].
+Les fleurs poussent sur une tige florale soyeuse et mesurent de 2 à 5 cm de long. Elles ont un tube floral fortement incurvé avec une marge colorée en jaune et violet à l'intérieur et une couleur violette ou violet-brun sur le bord. Les fruits sont des capsules cylindriques de 1 à 4 cm de long. La floraison a lieu de janvier à juin.
 Le nombre de chromosomes est 2n = 14
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aristoloche_%C3%A9lev%C3%A9e</t>
+          <t>Aristoloche_élevée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout l'est du bassin méditerranéen, y compris le nord de l'Afrique, la Grèce, l'extrême sud-est de la France, le sud de l'Italie et la Sicile[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout l'est du bassin méditerranéen, y compris le nord de l'Afrique, la Grèce, l'extrême sud-est de la France, le sud de l'Italie et la Sicile.
 </t>
         </is>
       </c>
